--- a/data/trans_camb/P27A_12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P27A_12-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -6,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -11,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -10,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-45,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-40,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,12 +929,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,9; -0,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 128,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +944,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,16; -6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 30,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,15 +959,45 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,56; -13,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 40,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; -3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -4,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1265,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,49; 13,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,38; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1280,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 51,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 82,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,15 +1295,45 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 13,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 21,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; -2,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-47,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-52,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1601,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 75,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 80,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1616,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 7,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,15 +1631,45 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 21,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 24,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1270,7 +1678,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -5,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-29,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-28,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1937,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 32,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1952,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 26,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,30 +1967,404 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,94; -9,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 16,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
